--- a/biology/Mycologie/Cystoderma/Cystoderma.xlsx
+++ b/biology/Mycologie/Cystoderma/Cystoderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Cystoderma (de leur nom vernaculaire les cystodermes) est un genre de champignons basidiomycètes classé autrefois dans la famille des Tricholomataceae, actuellement dans la famille des Cystodermataceae dans le clade I Agaricoïde dans l'ordre des Agaricales.
 Le nom du genre a été construit sur le grec kustis, "petit sac" et derma, "peau", en référence à l'armille qui recouvre leur pied et laisse souvent des traces (dentelures) à la marge du chapeau. Ce sont des champignons à lames claires, jadis classés parmi les lépiotes mais plus proches des armillaires.
@@ -528,7 +540,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinz Clémençon et al., Les quatre saisons des champignons, La Bibliothèque des Arts,  (ISBN 2-85047-101-1)
 Sur les autres projets Wikimedia :
